--- a/data/water_meter_readings.xlsx
+++ b/data/water_meter_readings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvalencia.GANEBYD\projects\pruebas_tecnicas\prueba_tecnica_backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/kevin_lince_correounivalle_edu_co/Documents/Escritorio/Documentos semestre 2025-1/Prueba tecnica/prueba_tecnica_backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D5A7E8-AC2E-4782-9237-4506349392C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7D5A7E8-AC2E-4782-9237-4506349392C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B15DF56-343D-4A2F-BF33-5FF301B3ACD3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="4320" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecturas_Agosto" sheetId="2" r:id="rId1"/>
@@ -1915,7 +1915,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2222,22 +2222,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2326,7 +2324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2395,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2441,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2504,7 +2502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2527,7 +2525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2886,7 +2884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3035,7 +3033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3095,7 +3093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3227,7 +3225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3293,7 +3291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3313,7 +3311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3336,7 +3334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3359,7 +3357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3379,7 +3377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3488,7 +3486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3511,7 +3509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3600,7 +3598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3623,7 +3621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3692,7 +3690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3715,7 +3713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3735,7 +3733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3758,7 +3756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3778,7 +3776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3801,7 +3799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3844,7 +3842,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3933,7 +3931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4025,7 +4023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4048,7 +4046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4071,7 +4069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4094,7 +4092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4117,7 +4115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4163,7 +4161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4183,7 +4181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4203,7 +4201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4226,7 +4224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4269,7 +4267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4338,7 +4336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4542,7 +4540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4562,7 +4560,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4628,7 +4626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4648,7 +4646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4714,7 +4712,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4734,7 +4732,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4754,7 +4752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4774,7 +4772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4817,7 +4815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4883,7 +4881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4929,7 +4927,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4995,7 +4993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5018,7 +5016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5064,7 +5062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5219,7 +5217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5242,7 +5240,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5308,7 +5306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5354,7 +5352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5446,7 +5444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5466,7 +5464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5512,7 +5510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5535,7 +5533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5581,7 +5579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5647,7 +5645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5670,7 +5668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5693,7 +5691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5739,7 +5737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5782,7 +5780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5805,7 +5803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5874,7 +5872,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5920,7 +5918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5940,7 +5938,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6032,7 +6030,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6144,7 +6142,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6187,7 +6185,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6256,7 +6254,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6279,7 +6277,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6302,7 +6300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6325,7 +6323,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6368,7 +6366,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6391,7 +6389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6414,7 +6412,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6437,7 +6435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6477,7 +6475,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6546,7 +6544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6592,7 +6590,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6612,7 +6610,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6632,7 +6630,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6714,18 +6712,18 @@
       <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6794,7 +6792,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6863,7 +6861,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6886,7 +6884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6978,7 +6976,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6998,7 +6996,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7041,7 +7039,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7061,7 +7059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7084,7 +7082,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7107,7 +7105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7127,7 +7125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7147,7 +7145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7170,7 +7168,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7190,7 +7188,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7210,7 +7208,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7279,7 +7277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7299,7 +7297,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7322,7 +7320,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7342,7 +7340,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7362,7 +7360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7385,7 +7383,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7454,7 +7452,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7563,7 +7561,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7586,7 +7584,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7632,7 +7630,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7652,7 +7650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7675,7 +7673,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7698,7 +7696,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7721,7 +7719,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7767,7 +7765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7790,7 +7788,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7836,7 +7834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7902,7 +7900,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7948,7 +7946,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7971,7 +7969,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7991,7 +7989,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8014,7 +8012,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8057,7 +8055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8080,7 +8078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8100,7 +8098,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8120,7 +8118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8166,7 +8164,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8186,7 +8184,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8272,7 +8270,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8295,7 +8293,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8318,7 +8316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8384,7 +8382,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8404,7 +8402,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8424,7 +8422,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8447,7 +8445,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8467,7 +8465,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8490,7 +8488,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8513,7 +8511,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8536,7 +8534,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8556,7 +8554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8579,7 +8577,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8625,7 +8623,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8648,7 +8646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8671,7 +8669,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8694,7 +8692,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8714,7 +8712,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8737,7 +8735,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8757,7 +8755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8780,7 +8778,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8803,7 +8801,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8826,7 +8824,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8846,7 +8844,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8869,7 +8867,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8892,7 +8890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8915,7 +8913,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8938,7 +8936,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8961,7 +8959,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8984,7 +8982,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9007,7 +9005,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9030,7 +9028,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9053,7 +9051,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9076,7 +9074,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9099,7 +9097,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9119,7 +9117,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9142,7 +9140,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9188,7 +9186,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9211,7 +9209,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9234,7 +9232,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9254,7 +9252,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9277,7 +9275,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9320,7 +9318,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9360,7 +9358,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9383,7 +9381,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9406,7 +9404,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9429,7 +9427,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9475,7 +9473,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9518,7 +9516,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9538,7 +9536,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9561,7 +9559,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9581,7 +9579,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9604,7 +9602,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9627,7 +9625,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9650,7 +9648,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9673,7 +9671,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9696,7 +9694,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9719,7 +9717,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9742,7 +9740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9782,7 +9780,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9825,7 +9823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9848,7 +9846,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9868,7 +9866,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9891,7 +9889,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9914,7 +9912,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9937,7 +9935,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9980,7 +9978,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10003,7 +10001,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10026,7 +10024,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10072,7 +10070,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10095,7 +10093,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10118,7 +10116,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10141,7 +10139,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10164,7 +10162,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10187,7 +10185,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10210,7 +10208,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10230,7 +10228,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10253,7 +10251,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10276,7 +10274,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10299,7 +10297,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10322,7 +10320,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10345,7 +10343,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10368,7 +10366,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10388,7 +10386,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10408,7 +10406,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10431,7 +10429,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10454,7 +10452,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10474,7 +10472,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10494,7 +10492,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10514,7 +10512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10534,7 +10532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10554,7 +10552,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10574,7 +10572,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10597,7 +10595,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10620,7 +10618,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10643,7 +10641,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10666,7 +10664,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10689,7 +10687,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10735,7 +10733,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10758,7 +10756,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10781,7 +10779,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10804,7 +10802,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10827,7 +10825,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10850,7 +10848,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10873,7 +10871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10896,7 +10894,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10919,7 +10917,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10942,7 +10940,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10965,7 +10963,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10988,7 +10986,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11011,7 +11009,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11031,7 +11029,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11077,7 +11075,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11100,7 +11098,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11123,7 +11121,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11146,7 +11144,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11169,7 +11167,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11205,18 +11203,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +11237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11262,7 +11260,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11285,7 +11283,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11308,7 +11306,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11331,7 +11329,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11374,7 +11372,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11397,7 +11395,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11443,7 +11441,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11463,7 +11461,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11483,7 +11481,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11506,7 +11504,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11552,7 +11550,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11572,7 +11570,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11592,7 +11590,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11638,7 +11636,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11661,7 +11659,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11707,7 +11705,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11727,7 +11725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11747,7 +11745,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11770,7 +11768,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11793,7 +11791,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11816,7 +11814,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11839,7 +11837,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11859,7 +11857,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11882,7 +11880,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11905,7 +11903,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11928,7 +11926,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11951,7 +11949,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11997,7 +11995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12017,7 +12015,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12063,7 +12061,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12086,7 +12084,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12109,7 +12107,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12129,7 +12127,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12152,7 +12150,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12175,7 +12173,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12198,7 +12196,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12221,7 +12219,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12264,7 +12262,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12287,7 +12285,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12310,7 +12308,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12330,7 +12328,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12353,7 +12351,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12376,7 +12374,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12399,7 +12397,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12422,7 +12420,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12445,7 +12443,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12468,7 +12466,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12488,7 +12486,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12508,7 +12506,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12531,7 +12529,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12554,7 +12552,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12577,7 +12575,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12623,7 +12621,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12646,7 +12644,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12666,7 +12664,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12686,7 +12684,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12706,7 +12704,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12729,7 +12727,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12752,7 +12750,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12798,7 +12796,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12821,7 +12819,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12844,7 +12842,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12867,7 +12865,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12890,7 +12888,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12913,7 +12911,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12936,7 +12934,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12959,7 +12957,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12982,7 +12980,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13005,7 +13003,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13028,7 +13026,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13051,7 +13049,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13074,7 +13072,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13097,7 +13095,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13140,7 +13138,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13160,7 +13158,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13183,7 +13181,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13226,7 +13224,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13249,7 +13247,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13272,7 +13270,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13295,7 +13293,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13318,7 +13316,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13341,7 +13339,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13364,7 +13362,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13387,7 +13385,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13410,7 +13408,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13433,7 +13431,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13456,7 +13454,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13479,7 +13477,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13502,7 +13500,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13525,7 +13523,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13548,7 +13546,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13571,7 +13569,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13594,7 +13592,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13617,7 +13615,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13637,7 +13635,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13660,7 +13658,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13683,7 +13681,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13706,7 +13704,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13729,7 +13727,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13752,7 +13750,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13775,7 +13773,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13795,7 +13793,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13818,7 +13816,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13838,7 +13836,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13858,7 +13856,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13881,7 +13879,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13904,7 +13902,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13927,7 +13925,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13950,7 +13948,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13970,7 +13968,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13990,7 +13988,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14010,7 +14008,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14033,7 +14031,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14056,7 +14054,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14076,7 +14074,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14096,7 +14094,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14119,7 +14117,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14142,7 +14140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14162,7 +14160,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14185,7 +14183,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14208,7 +14206,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14231,7 +14229,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14254,7 +14252,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14277,7 +14275,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14300,7 +14298,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14323,7 +14321,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14346,7 +14344,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -14369,7 +14367,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -14392,7 +14390,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -14412,7 +14410,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -14432,7 +14430,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -14455,7 +14453,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14478,7 +14476,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14501,7 +14499,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -14524,7 +14522,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -14547,7 +14545,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -14570,7 +14568,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -14590,7 +14588,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -14613,7 +14611,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -14633,7 +14631,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -14656,7 +14654,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -14679,7 +14677,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14702,7 +14700,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14725,7 +14723,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14748,7 +14746,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14771,7 +14769,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14791,7 +14789,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14814,7 +14812,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14837,7 +14835,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14860,7 +14858,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14883,7 +14881,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14906,7 +14904,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14929,7 +14927,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14952,7 +14950,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14975,7 +14973,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14995,7 +14993,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15015,7 +15013,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15058,7 +15056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -15081,7 +15079,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -15104,7 +15102,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -15127,7 +15125,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -15150,7 +15148,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -15173,7 +15171,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -15196,7 +15194,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -15219,7 +15217,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15242,7 +15240,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15265,7 +15263,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15285,7 +15283,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15308,7 +15306,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15331,7 +15329,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15354,7 +15352,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15377,7 +15375,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15400,7 +15398,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15423,7 +15421,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -15443,7 +15441,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -15466,7 +15464,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -15489,7 +15487,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -15512,7 +15510,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15535,7 +15533,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15558,7 +15556,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15581,7 +15579,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15601,7 +15599,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15624,7 +15622,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15647,7 +15645,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15667,7 +15665,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15690,7 +15688,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
